--- a/InternationalSchoolsEstablished/InternationalSchools_lat_long_county.xlsx
+++ b/InternationalSchoolsEstablished/InternationalSchools_lat_long_county.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InternationalSchools_lat_long_c" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="252">
   <si>
     <t>City</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>Maricopa County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Irvine</t>
   </si>
   <si>
@@ -63,27 +60,18 @@
     <t>California</t>
   </si>
   <si>
-    <t>Orange County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Los Angeles</t>
   </si>
   <si>
     <t>American University Preparatory School</t>
   </si>
   <si>
-    <t>Los Angeles County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> San Francisco</t>
   </si>
   <si>
     <t>French American International School</t>
   </si>
   <si>
-    <t>San Francisco County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Palos Verdes Estates</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Oakland International High School</t>
   </si>
   <si>
-    <t>Alameda County</t>
-  </si>
-  <si>
     <t>Denver</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>Denver County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Riverside</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
     <t>Connecticut</t>
   </si>
   <si>
-    <t>Fairfield County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Greenwich</t>
   </si>
   <si>
@@ -165,9 +144,6 @@
     <t>District of Columbia</t>
   </si>
   <si>
-    <t>Arlington County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> D.C. (DSW)</t>
   </si>
   <si>
@@ -192,27 +168,18 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>Pinellas County</t>
-  </si>
-  <si>
     <t>Lighthouse Point</t>
   </si>
   <si>
     <t>North Broward Preparatory School</t>
   </si>
   <si>
-    <t>Broward County</t>
-  </si>
-  <si>
     <t>Lake Butler</t>
   </si>
   <si>
     <t>Windermere Preparatory School</t>
   </si>
   <si>
-    <t>Union County</t>
-  </si>
-  <si>
     <t>Atlanta</t>
   </si>
   <si>
@@ -222,18 +189,12 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Fulton County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Peachtree Corners</t>
   </si>
   <si>
     <t>Seigakuin Atlanta International School</t>
   </si>
   <si>
-    <t>Gwinnett County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Honolulu</t>
   </si>
   <si>
@@ -243,9 +204,6 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <t>Honolulu County</t>
-  </si>
-  <si>
     <t>Chicago</t>
   </si>
   <si>
@@ -255,9 +213,6 @@
     <t>Illinois</t>
   </si>
   <si>
-    <t>Cook County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> South Loop</t>
   </si>
   <si>
@@ -282,9 +237,6 @@
     <t>Indiana</t>
   </si>
   <si>
-    <t>Marion County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bethesda</t>
   </si>
   <si>
@@ -294,18 +246,12 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>Montgomery County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fort Washington</t>
   </si>
   <si>
     <t>Maryland International Day School</t>
   </si>
   <si>
-    <t>Prince George's County</t>
-  </si>
-  <si>
     <t>Boston</t>
   </si>
   <si>
@@ -315,18 +261,12 @@
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Suffolk County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cambridge</t>
   </si>
   <si>
     <t>International School of Boston</t>
   </si>
   <si>
-    <t>Middlesex County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Boston</t>
   </si>
   <si>
@@ -342,18 +282,12 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>Oakland County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Clinton Township</t>
   </si>
   <si>
     <t>International Academy of Macomb</t>
   </si>
   <si>
-    <t>Macomb County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> St Paul</t>
   </si>
   <si>
@@ -363,18 +297,12 @@
     <t>Minnesota</t>
   </si>
   <si>
-    <t>Ramsey County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Eden Prairie</t>
   </si>
   <si>
     <t>The International School of Minnesota</t>
   </si>
   <si>
-    <t>Hennepin County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Henderson</t>
   </si>
   <si>
@@ -384,9 +312,6 @@
     <t>Nevada</t>
   </si>
   <si>
-    <t>Clark County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Oakland</t>
   </si>
   <si>
@@ -396,27 +321,18 @@
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Bergen County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Princeton</t>
   </si>
   <si>
     <t>Princeton International School of Mathematics and Science</t>
   </si>
   <si>
-    <t>Mercer County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Morristown</t>
   </si>
   <si>
     <t>French Saturday School</t>
   </si>
   <si>
-    <t>Morris County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Montezuma</t>
   </si>
   <si>
@@ -426,9 +342,6 @@
     <t>New Mexico</t>
   </si>
   <si>
-    <t>San Miguel County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> New York City</t>
   </si>
   <si>
@@ -462,9 +375,6 @@
     <t>French-American School of New York</t>
   </si>
   <si>
-    <t>Westchester County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> White Plains</t>
   </si>
   <si>
@@ -498,36 +408,24 @@
     <t>North Carolina</t>
   </si>
   <si>
-    <t>Guilford County</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
     <t>British American School of Charlotte</t>
   </si>
   <si>
-    <t>Mecklenburg County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Portland</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Multnomah County</t>
-  </si>
-  <si>
     <t>Aloha</t>
   </si>
   <si>
     <t>International School of Beaverton</t>
   </si>
   <si>
-    <t>Washington County</t>
-  </si>
-  <si>
     <t>The British International School of Charlotte</t>
   </si>
   <si>
@@ -540,9 +438,6 @@
     <t>French Bilingual School of South Carolina</t>
   </si>
   <si>
-    <t>Greenville County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sweetwater</t>
   </si>
   <si>
@@ -552,9 +447,6 @@
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Monroe County</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -564,18 +456,12 @@
     <t>Texas</t>
   </si>
   <si>
-    <t>Travis County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Houston</t>
   </si>
   <si>
     <t>Awty International School</t>
   </si>
   <si>
-    <t>Harris County</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
@@ -588,18 +474,12 @@
     <t>Dallas International School</t>
   </si>
   <si>
-    <t>Dallas County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Katy</t>
   </si>
   <si>
     <t>Faith West Academy</t>
   </si>
   <si>
-    <t>Fort Bend County</t>
-  </si>
-  <si>
     <t>International School of Texas-Austin</t>
   </si>
   <si>
@@ -612,9 +492,6 @@
     <t>French Immersion School of Washington</t>
   </si>
   <si>
-    <t>King County</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Kirkland</t>
   </si>
   <si>
@@ -634,12 +511,276 @@
   </si>
   <si>
     <t>GEMS World Academy-Chicago</t>
+  </si>
+  <si>
+    <t>County_State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maricopa County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alameda County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denver County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairfield County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arlington County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinellas County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broward County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulton County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwinnett County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honolulu County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marion County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince George's County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suffolk County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middlesex County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakland County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macomb County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramsey County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hennepin County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clark County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergen County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercer County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morris County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Miguel County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westchester County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilford County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecklenburg County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multnomah County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenville County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monroe County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Bend County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">King County </t>
+  </si>
+  <si>
+    <t>Maricopa County, Arizona</t>
+  </si>
+  <si>
+    <t>Orange County, California</t>
+  </si>
+  <si>
+    <t>Los Angeles County, California</t>
+  </si>
+  <si>
+    <t>San Francisco County, California</t>
+  </si>
+  <si>
+    <t>Alameda County, California</t>
+  </si>
+  <si>
+    <t>Denver County, Colorado</t>
+  </si>
+  <si>
+    <t>Fairfield County, Connecticut</t>
+  </si>
+  <si>
+    <t>Arlington County, District of Columbia</t>
+  </si>
+  <si>
+    <t>WashingtonDistrict of Columbia</t>
+  </si>
+  <si>
+    <t>District of ColumbiaDistrict of Columbia</t>
+  </si>
+  <si>
+    <t>Pinellas County, Florida</t>
+  </si>
+  <si>
+    <t>Broward County, Florida</t>
+  </si>
+  <si>
+    <t>Union County, Florida</t>
+  </si>
+  <si>
+    <t>Fulton County, Georgia</t>
+  </si>
+  <si>
+    <t>Gwinnett County, Georgia</t>
+  </si>
+  <si>
+    <t>Honolulu County, Hawaii</t>
+  </si>
+  <si>
+    <t>Cook County, Illinois</t>
+  </si>
+  <si>
+    <t>Marion County, Indiana</t>
+  </si>
+  <si>
+    <t>Montgomery County, Maryland</t>
+  </si>
+  <si>
+    <t>Prince George's County, Maryland</t>
+  </si>
+  <si>
+    <t>Suffolk County, Massachusetts</t>
+  </si>
+  <si>
+    <t>Middlesex County, Massachusetts</t>
+  </si>
+  <si>
+    <t>Oakland County, Michigan</t>
+  </si>
+  <si>
+    <t>Macomb County, Michigan</t>
+  </si>
+  <si>
+    <t>Ramsey County, Minnesota</t>
+  </si>
+  <si>
+    <t>Hennepin County, Minnesota</t>
+  </si>
+  <si>
+    <t>Clark County, Nevada</t>
+  </si>
+  <si>
+    <t>Bergen County, New Jersey</t>
+  </si>
+  <si>
+    <t>Mercer County, New Jersey</t>
+  </si>
+  <si>
+    <t>Morris County, New Jersey</t>
+  </si>
+  <si>
+    <t>San Miguel County, New Mexico</t>
+  </si>
+  <si>
+    <t>New YorkNew York</t>
+  </si>
+  <si>
+    <t>Westchester County, New York</t>
+  </si>
+  <si>
+    <t>Guilford County, North Carolina</t>
+  </si>
+  <si>
+    <t>Mecklenburg County, North Carolina</t>
+  </si>
+  <si>
+    <t>Multnomah County, Oregon</t>
+  </si>
+  <si>
+    <t>Washington County, Oregon</t>
+  </si>
+  <si>
+    <t>Mecklenburg County, South Carolina</t>
+  </si>
+  <si>
+    <t>Greenville County, South Carolina</t>
+  </si>
+  <si>
+    <t>Monroe County, Tennessee</t>
+  </si>
+  <si>
+    <t>Travis County, Texas</t>
+  </si>
+  <si>
+    <t>Harris County, Texas</t>
+  </si>
+  <si>
+    <t>Dallas County, Texas</t>
+  </si>
+  <si>
+    <t>Fort Bend County, Texas</t>
+  </si>
+  <si>
+    <t>King County, Washington</t>
+  </si>
+  <si>
+    <t>Mercer County, West Virginia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1117,8 +1258,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1473,11 +1615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G76" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,12 +1628,12 @@
     <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,17 +1646,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1527,1710 +1672,1935 @@
       <c r="D2">
         <v>1997</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>33.494170400000002</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-111.9260519</v>
       </c>
       <c r="G2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>2001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>33.684567299999998</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-117.8265049</v>
       </c>
       <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2013</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>34.052234200000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-118.24368490000001</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1962</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>37.774929499999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-122.4194155</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1979</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>33.800571400000003</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>-118.3900737</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1962</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>37.774929499999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>-122.4194155</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1979</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>37.774929499999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>-122.4194155</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>2002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>37.774929499999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>-122.4194155</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1964</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>34.052234200000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>-118.24368490000001</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1978</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>34.180839200000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>-118.30896610000001</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>2007</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>37.804363700000003</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>-122.2711137</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1858</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>39.739235800000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>-104.990251</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="H13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>41.0337666</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>-73.5784843</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="H14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>1975</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>41.0262417</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>-73.628196399999993</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>1958</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>41.0262417</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>-73.628196399999993</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>1998</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>38.909705700000004</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>-77.065356499999993</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="H17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>1961</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>38.928939999999997</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>-77.034381999999994</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>1966</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>38.907192299999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>-77.036870699999994</v>
       </c>
       <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>1964</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>27.909466500000001</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>-82.787324400000003</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="H20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1957</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>26.275635999999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>-80.087265400000007</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="H21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>30.022739099999999</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>-82.339557400000004</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="H22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1984</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>33.748995399999998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>-84.387982399999999</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="H23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>1990</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>33.969864000000001</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>-84.221293799999998</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="H24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1">
         <v>21.306944399999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>-157.8583333</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>2001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>41.878113599999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>-87.629798199999996</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>2001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>41.856545300000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>-87.627183799999997</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>1966</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>42.088360299999998</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>-87.9806265</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>1995</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>41.878113599999999</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>-87.629798199999996</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>1994</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>39.768402999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>-86.158068</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="H30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D31">
         <v>1955</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>38.984651999999997</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>-77.094709199999997</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="H31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <v>2001</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>38.707337899999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>-77.0230313</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="H32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>2000</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>42.360082499999997</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>-71.058880099999996</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>1962</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>42.373615800000003</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>-71.109733500000004</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>1983</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>42.360082499999997</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>-71.058880099999996</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>1996</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>42.583644999999997</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>-83.245488300000005</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>2008</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>42.586888199999997</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>-82.919551400000003</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="H37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D38">
         <v>2003</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>44.953702900000003</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>-93.089957799999993</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="H38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D39">
         <v>1985</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>44.854685600000003</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>-93.470786000000004</v>
       </c>
       <c r="G39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D40">
         <v>1941</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>36.039524700000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>-114.9817213</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="H40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D41">
         <v>1992</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>41.013152900000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>-74.264314299999995</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="H41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D42">
         <v>2013</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>40.357297600000003</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>-74.667222600000002</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="H42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43">
+        <v>99</v>
+      </c>
+      <c r="E43" s="1">
         <v>40.796766699999999</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>-74.481543799999997</v>
       </c>
       <c r="G43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="H43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D44">
         <v>1982</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>35.652184200000001</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>-105.2766154</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D45">
         <v>2011</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D46">
         <v>2006</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D47">
         <v>2005</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D48">
         <v>1872</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D49">
         <v>2004</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D50">
         <v>2004</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D51">
         <v>1980</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>41.122019399999999</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>-73.794851600000001</v>
       </c>
       <c r="G51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D52">
         <v>1980</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>41.033986200000001</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>-73.762909699999994</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D53">
         <v>1985</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D54">
         <v>1990</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>41.040013500000001</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>-73.714447699999994</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D55">
         <v>1935</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D56">
         <v>2011</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D57">
         <v>1947</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>40.712775299999997</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>-74.005972799999995</v>
       </c>
       <c r="G57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D58">
         <v>2001</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>36.072635400000003</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>-79.791975399999998</v>
       </c>
       <c r="G58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="H58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D59">
         <v>2004</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>35.227086900000003</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>-80.843126699999999</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D60">
         <v>1979</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>45.523062199999998</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>-122.67648149999999</v>
       </c>
       <c r="G60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D61">
         <v>2006</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>45.494283799999998</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>-122.86704539999999</v>
       </c>
       <c r="G61" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D62">
         <v>2004</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>35.227086900000003</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>-80.843126699999999</v>
       </c>
       <c r="G62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="H62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D63">
         <v>1979</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>34.903728200000003</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>-82.333173299999999</v>
       </c>
       <c r="G63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="H63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D64">
         <v>1989</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>35.601463600000002</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>-84.461039400000004</v>
       </c>
       <c r="G64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="H64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D65">
         <v>2001</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>30.267153</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>-97.743060799999995</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="H65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D66">
         <v>1956</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>29.7604267</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>-95.369802800000002</v>
       </c>
       <c r="G66" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D67">
         <v>2000</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>29.7604267</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>-95.369802800000002</v>
       </c>
       <c r="G67" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D68">
         <v>1993</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>32.776664199999999</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>-96.796987900000005</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="H68" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D69">
         <v>1982</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>29.785785300000001</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>-95.824395600000003</v>
       </c>
       <c r="G69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D70">
         <v>2013</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>30.267153</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>-97.743060799999995</v>
       </c>
       <c r="G70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="H70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D71">
         <v>1966</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>29.7604267</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>-95.369802800000002</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H71" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D72">
         <v>1999</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>47.610149700000001</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>-122.2015159</v>
       </c>
       <c r="G72" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D73">
         <v>1997</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>47.676892700000003</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>-122.2059833</v>
       </c>
       <c r="G73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="H73" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D74">
         <v>1991</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>47.610149700000001</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>-122.2015159</v>
       </c>
       <c r="G74" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="H74" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="D75">
         <v>2007</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>37.269839500000003</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>-81.222319499999998</v>
       </c>
       <c r="G75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="H75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D76">
         <v>2014</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>41.886662000000001</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>-87.618770999999995</v>
       </c>
       <c r="G76" t="s">
-        <v>78</v>
+        <v>179</v>
+      </c>
+      <c r="H76" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
